--- a/top_genes_comparison.xlsx
+++ b/top_genes_comparison.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\cambodian_vivax_transcriptomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8527E5-BAAB-46D7-8AB8-F47729E334B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F25EF-FC29-4392-BD57-056528D88DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2B9DEE7A-A3D1-471E-BCFB-36C0A7824F8B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B9DEE7A-A3D1-471E-BCFB-36C0A7824F8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Top 30 via Likelihood Ratio" sheetId="1" r:id="rId1"/>
-    <sheet name="Top or Bottom 15 via Odds Ratio" sheetId="2" r:id="rId2"/>
+    <sheet name="Top 30 via LR (Rings)" sheetId="1" r:id="rId1"/>
+    <sheet name="Top or Bottom 15 via OR (Rings)" sheetId="2" r:id="rId2"/>
+    <sheet name="Top 30 via LR (Tr36)" sheetId="3" r:id="rId3"/>
+    <sheet name="Top or Bottom 15 via OR (Tr36)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="136">
   <si>
     <t xml:space="preserve">Coefficient:  cibersort_results$Schizonts </t>
   </si>
@@ -309,6 +311,141 @@
   </si>
   <si>
     <t>Bottom 9 (-)</t>
+  </si>
+  <si>
+    <t>PVP01_1300800</t>
+  </si>
+  <si>
+    <t>PVP01_0915200</t>
+  </si>
+  <si>
+    <t>PVP01_1328300</t>
+  </si>
+  <si>
+    <t>PVP01_0528100</t>
+  </si>
+  <si>
+    <t>PVP01_0724100</t>
+  </si>
+  <si>
+    <t>PVP01_1268400</t>
+  </si>
+  <si>
+    <t>PVP01_0503000</t>
+  </si>
+  <si>
+    <t>PVP01_0301300</t>
+  </si>
+  <si>
+    <t>PVP01_0727100</t>
+  </si>
+  <si>
+    <t>PVP01_0914000</t>
+  </si>
+  <si>
+    <t>PVP01_0714200</t>
+  </si>
+  <si>
+    <t>PVP01_0827400</t>
+  </si>
+  <si>
+    <t>PVP01_1325100</t>
+  </si>
+  <si>
+    <t>PVP01_0305300</t>
+  </si>
+  <si>
+    <t>PVP01_0107300</t>
+  </si>
+  <si>
+    <t>PVP01_0933400</t>
+  </si>
+  <si>
+    <t>PVP01_0917900</t>
+  </si>
+  <si>
+    <t>PVP01_0815700</t>
+  </si>
+  <si>
+    <t>PVP01_0829400</t>
+  </si>
+  <si>
+    <t>PVP01_1240200</t>
+  </si>
+  <si>
+    <t>PVP01_1114000</t>
+  </si>
+  <si>
+    <t>PVP01_1309600</t>
+  </si>
+  <si>
+    <t>PVP01_0302000</t>
+  </si>
+  <si>
+    <t>PVP01_0603300</t>
+  </si>
+  <si>
+    <t>PVP01_0315800</t>
+  </si>
+  <si>
+    <t>PVP01_0524800</t>
+  </si>
+  <si>
+    <t>PVP01_0714300</t>
+  </si>
+  <si>
+    <t>PVP01_1416600</t>
+  </si>
+  <si>
+    <t>PVP01_0419100</t>
+  </si>
+  <si>
+    <t>PVP01_1305900</t>
+  </si>
+  <si>
+    <t>PVP01_1032100</t>
+  </si>
+  <si>
+    <t>PVP01_1471600</t>
+  </si>
+  <si>
+    <t>PVP01_0312000</t>
+  </si>
+  <si>
+    <t>PVP01_0200700</t>
+  </si>
+  <si>
+    <t>PVP01_1147100</t>
+  </si>
+  <si>
+    <t>PVP01_0728500</t>
+  </si>
+  <si>
+    <t>PVP01_0118300</t>
+  </si>
+  <si>
+    <t>PVP01_0320400</t>
+  </si>
+  <si>
+    <t>PVP01_1472000</t>
+  </si>
+  <si>
+    <t>PVP01_1469800</t>
+  </si>
+  <si>
+    <t>PVP01_1029100</t>
+  </si>
+  <si>
+    <t>PVP01_0937900</t>
+  </si>
+  <si>
+    <t>PVP01_1344900</t>
+  </si>
+  <si>
+    <t>PVP01_0926100</t>
+  </si>
+  <si>
+    <t>CPM</t>
   </si>
 </sst>
 </file>
@@ -350,16 +487,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,56 +814,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA5E65C-976C-40A8-ABA4-2BE938CC1930}">
-  <dimension ref="A1:U45"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -734,28 +881,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -766,28 +919,36 @@
         <v>13.35361</v>
       </c>
       <c r="D3">
+        <f>2^C3</f>
+        <v>10467.359986649371</v>
+      </c>
+      <c r="E3">
         <v>114.97602999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>7.9654490000000003E-27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11.108743</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.56705539000000005</v>
       </c>
-      <c r="L3">
+      <c r="M3">
+        <f>2^L3</f>
+        <v>1.4814966766560194</v>
+      </c>
+      <c r="N3">
         <v>10.487845999999999</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1.2016240000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -798,28 +959,36 @@
         <v>10.512487999999999</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:D32" si="0">2^C4</f>
+        <v>1460.7443563093673</v>
+      </c>
+      <c r="E4">
         <v>59.656379999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1.1295279999999999E-14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>15.173781</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.12360015000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
+        <f t="shared" ref="M4:M32" si="1">2^L4</f>
+        <v>1.0894501239261827</v>
+      </c>
+      <c r="N4">
         <v>9.2551900000000007</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>2.3482899999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -830,28 +999,36 @@
         <v>2.328147</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5.0215996030822563</v>
+      </c>
+      <c r="E5">
         <v>50.159140000000001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1.417691E-12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>16.644915999999998</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.57053765000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1.4850769119921756</v>
+      </c>
+      <c r="N5">
         <v>6.7479839999999998</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>9.3853679999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -862,28 +1039,36 @@
         <v>11.820202</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3616.0577423290706</v>
+      </c>
+      <c r="E6">
         <v>44.366459999999996</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2.7231219999999999E-11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14.999333999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2.9482798300000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>7.7182823956014817</v>
+      </c>
+      <c r="N6">
         <v>6.2280199999999999</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>1.2574428E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -894,28 +1079,36 @@
         <v>11.397539</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2697.7463632416866</v>
+      </c>
+      <c r="E7">
         <v>42.24682</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>8.0450909999999999E-11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-31.441835999999999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-0.98323704999999995</v>
       </c>
-      <c r="L7">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.50584347827008014</v>
+      </c>
+      <c r="N7">
         <v>5.9876680000000002</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.4406235E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -926,28 +1119,36 @@
         <v>7.6177849999999996</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>196.41822655779558</v>
+      </c>
+      <c r="E8">
         <v>42.195219999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>8.2601660000000006E-11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-14.265807000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.32833034</v>
       </c>
-      <c r="L8">
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.2555594491413375</v>
+      </c>
+      <c r="N8">
         <v>5.8636910000000002</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.5456347E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -958,28 +1159,36 @@
         <v>6.5066259999999998</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>90.926316238461368</v>
+      </c>
+      <c r="E9">
         <v>35.541069999999998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>2.4972879999999999E-9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>23</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8.491968</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.2691892</v>
       </c>
-      <c r="L9">
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2.41026069915912</v>
+      </c>
+      <c r="N9">
         <v>5.5334459999999996</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>1.8656331000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -990,28 +1199,36 @@
         <v>1.2669809999999999</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.4065743576959151</v>
+      </c>
+      <c r="E10">
         <v>24.397549999999999</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>7.8368130000000004E-7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>12.676625</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1.0979549500000001</v>
       </c>
-      <c r="L10">
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.46717826145325259</v>
+      </c>
+      <c r="N10">
         <v>5.3281039999999997</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>2.0984201000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1022,28 +1239,36 @@
         <v>3.5095480000000001</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>11.388832855665511</v>
+      </c>
+      <c r="E11">
         <v>22.769200000000001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1.8266969999999999E-6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-9.3185920000000007</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.7803553999999999</v>
       </c>
-      <c r="L11">
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>3.4351078614847186</v>
+      </c>
+      <c r="N11">
         <v>5.1802279999999996</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>2.2845325999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1054,28 +1279,36 @@
         <v>3.1917680000000002</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.1373004860129807</v>
+      </c>
+      <c r="E12">
         <v>21.125389999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>4.3019019999999999E-6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>26</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6.0190989999999998</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2.4908955499999998</v>
       </c>
-      <c r="L12">
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>5.6212678106723493</v>
+      </c>
+      <c r="N12">
         <v>5.1533610000000003</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>2.3201419000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1086,28 +1319,36 @@
         <v>3.0760420000000002</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>8.4329768851067524</v>
+      </c>
+      <c r="E13">
         <v>20.386310000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>6.328077E-6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>55</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>7.1817500000000001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.88465453000000005</v>
       </c>
-      <c r="L13">
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1.846322445272317</v>
+      </c>
+      <c r="N13">
         <v>4.9941440000000004</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>2.5433225E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1118,28 +1359,36 @@
         <v>3.6738140000000001</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>12.762278349344756</v>
+      </c>
+      <c r="E14">
         <v>19.291550000000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>1.122015E-5</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>80</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.1656050000000002</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4.2490401100000001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>19.014658321629657</v>
+      </c>
+      <c r="N14">
         <v>4.9137700000000004</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>2.6643429999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1150,28 +1399,36 @@
         <v>2.1509420000000001</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4.4411767843538419</v>
+      </c>
+      <c r="E15">
         <v>18.597899999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>1.6139850000000001E-5</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>56</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>6.9622070000000003</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.5426771700000002</v>
       </c>
-      <c r="L15">
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>5.826692478276609</v>
+      </c>
+      <c r="N15">
         <v>4.8608979999999997</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>2.7472040999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1182,29 +1439,37 @@
         <v>11.197957000000001</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2349.2051657394104</v>
+      </c>
+      <c r="E16">
         <v>18.067769999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>2.1317940000000001E-5</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="I16" t="s">
+      <c r="G16" s="1"/>
+      <c r="J16" t="s">
         <v>54</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7.4294479999999998</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.85673197000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.8109314922520336</v>
+      </c>
+      <c r="N16">
         <v>4.7718369999999997</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>2.8928947999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1215,29 +1480,37 @@
         <v>6.0520690000000004</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>66.352043818890024</v>
+      </c>
+      <c r="E17">
         <v>18.010739999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2.1966179999999998E-5</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="I17" t="s">
+      <c r="G17" s="1"/>
+      <c r="J17" t="s">
         <v>81</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.4532569999999998</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2.8281495400000001</v>
       </c>
-      <c r="L17">
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>7.1016267665556025</v>
+      </c>
+      <c r="N17">
         <v>4.768408</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>2.8986623999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1248,29 +1521,37 @@
         <v>8.5505110000000002</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>374.93871726787194</v>
+      </c>
+      <c r="E18">
         <v>17.832509999999999</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>2.4122640000000001E-5</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="I18" t="s">
+      <c r="G18" s="1"/>
+      <c r="J18" t="s">
         <v>82</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6.8422919999999996</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1.44338363</v>
       </c>
-      <c r="L18">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>2.7195795566552006</v>
+      </c>
+      <c r="N18">
         <v>4.4595010000000004</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>3.4707632000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1281,29 +1562,37 @@
         <v>2.0154429999999999</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4.0430470703785177</v>
+      </c>
+      <c r="E19">
         <v>17.20149</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>3.3617279999999999E-5</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="I19" t="s">
+      <c r="G19" s="1"/>
+      <c r="J19" t="s">
         <v>50</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-7.3217119999999998</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2.4058627299999999</v>
       </c>
-      <c r="L19">
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>5.2995238034391194</v>
+      </c>
+      <c r="N19">
         <v>4.4521930000000003</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>3.4856459999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1314,29 +1603,37 @@
         <v>6.9217690000000003</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>121.2439542643617</v>
+      </c>
+      <c r="E20">
         <v>17.134440000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>3.4824989999999999E-5</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="I20" t="s">
+      <c r="G20" s="1"/>
+      <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-6.916264</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2.5415793400000002</v>
       </c>
-      <c r="L20">
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>5.8222602979312343</v>
+      </c>
+      <c r="N20">
         <v>4.426755</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>3.5379716999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1347,29 +1644,37 @@
         <v>2.8971079999999998</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>7.4493161928010947</v>
+      </c>
+      <c r="E21">
         <v>16.682970000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>4.4175860000000002E-5</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="I21" t="s">
+      <c r="G21" s="1"/>
+      <c r="J21" t="s">
         <v>53</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8.9775080000000003</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.42949047000000001</v>
       </c>
-      <c r="L21">
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1.3467578458912068</v>
+      </c>
+      <c r="N21">
         <v>4.4218010000000003</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>3.5482560000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1380,29 +1685,37 @@
         <v>3.9211510000000001</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>15.149003590671295</v>
+      </c>
+      <c r="E22">
         <v>16.647690000000001</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>4.500519E-5</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="I22" t="s">
+      <c r="G22" s="1"/>
+      <c r="J22" t="s">
         <v>47</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-14.605938999999999</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1.61489543</v>
       </c>
-      <c r="L22">
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>3.0628939802341222</v>
+      </c>
+      <c r="N22">
         <v>4.4096120000000001</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>3.5736960999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1413,29 +1726,37 @@
         <v>8.042465</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>263.64722470962141</v>
+      </c>
+      <c r="E23">
         <v>16.48668</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>4.8993090000000003E-5</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="I23" t="s">
+      <c r="G23" s="1"/>
+      <c r="J23" t="s">
         <v>83</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5.8790230000000001</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.9585491300000002</v>
       </c>
-      <c r="L23">
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>7.7734181812330725</v>
+      </c>
+      <c r="N23">
         <v>4.1750170000000004</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>4.1024144999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1446,29 +1767,37 @@
         <v>3.9900190000000002</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>15.889689189586575</v>
+      </c>
+      <c r="E24">
         <v>14.167870000000001</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>1.6720179999999999E-4</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="I24" t="s">
+      <c r="G24" s="1"/>
+      <c r="J24" t="s">
         <v>84</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4.2930330000000003</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4.3195855300000003</v>
       </c>
-      <c r="L24">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>19.967551506185362</v>
+      </c>
+      <c r="N24">
         <v>4.1330400000000003</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>4.2053741999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1479,29 +1808,37 @@
         <v>4.7583979999999997</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>27.06577887243488</v>
+      </c>
+      <c r="E25">
         <v>14.066409999999999</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>1.764673E-4</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="I25" t="s">
+      <c r="G25" s="1"/>
+      <c r="J25" t="s">
         <v>48</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-9.6990320000000008</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.57625127</v>
       </c>
-      <c r="L25">
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2.98194008420628</v>
+      </c>
+      <c r="N25">
         <v>4.0815669999999997</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>4.3353432999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1512,29 +1849,37 @@
         <v>2.4130219999999998</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>5.3258876680547109</v>
+      </c>
+      <c r="E26">
         <v>13.693210000000001</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>2.1523159999999999E-4</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="I26" t="s">
+      <c r="G26" s="1"/>
+      <c r="J26" t="s">
         <v>52</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-5.884417</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3.7307783699999999</v>
       </c>
-      <c r="L26">
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>13.276273682274413</v>
+      </c>
+      <c r="N26">
         <v>4.0804090000000004</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>4.3383149000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1545,29 +1890,37 @@
         <v>5.4205120000000004</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>42.828878655212534</v>
+      </c>
+      <c r="E27">
         <v>13.595560000000001</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>2.2672060000000001E-4</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="I27" t="s">
+      <c r="G27" s="1"/>
+      <c r="J27" t="s">
         <v>85</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4.8219960000000004</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4.5360803399999998</v>
       </c>
-      <c r="L27">
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>23.20044126337385</v>
+      </c>
+      <c r="N27">
         <v>3.980985</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>4.6016635E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -1578,29 +1931,37 @@
         <v>4.7891409999999999</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>27.648724078319312</v>
+      </c>
+      <c r="E28">
         <v>13.159269999999999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>2.8610080000000002E-4</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="I28" t="s">
+      <c r="G28" s="1"/>
+      <c r="J28" t="s">
         <v>49</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-9.4865910000000007</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.66994955</v>
       </c>
-      <c r="L28">
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1.5910173298140895</v>
+      </c>
+      <c r="N28">
         <v>3.9179400000000002</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>4.7773375E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -1611,29 +1972,37 @@
         <v>5.4990750000000004</v>
       </c>
       <c r="D29">
+        <f t="shared" si="0"/>
+        <v>45.225827654755477</v>
+      </c>
+      <c r="E29">
         <v>13.025460000000001</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>3.0728519999999998E-4</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="I29" t="s">
+      <c r="G29" s="1"/>
+      <c r="J29" t="s">
         <v>86</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>10.292781</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-0.14818713</v>
       </c>
-      <c r="L29">
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0.90238367291944011</v>
+      </c>
+      <c r="N29">
         <v>3.7938339999999999</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>5.1441677999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1644,29 +2013,37 @@
         <v>3.2442350000000002</v>
       </c>
       <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9.4757162646391784</v>
+      </c>
+      <c r="E30">
         <v>12.90404</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>3.2787400000000003E-4</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="I30" t="s">
+      <c r="G30" s="1"/>
+      <c r="J30" t="s">
         <v>87</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-12.156091</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4.4237980000000003E-2</v>
       </c>
-      <c r="L30">
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1.0311383963721887</v>
+      </c>
+      <c r="N30">
         <v>3.7879890000000001</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>5.1621632000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1677,29 +2054,37 @@
         <v>2.4019149999999998</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5.2850422319295802</v>
+      </c>
+      <c r="E31">
         <v>12.83741</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>3.3975800000000001E-4</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="I31" t="s">
+      <c r="G31" s="1"/>
+      <c r="J31" t="s">
         <v>88</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>8.8992000000000004</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2.2456284399999999</v>
       </c>
-      <c r="L31">
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>4.7424364459186963</v>
+      </c>
+      <c r="N31">
         <v>3.7668400000000002</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>5.2278313999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -1710,75 +2095,83 @@
         <v>4.5505890000000004</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
+        <v>23.434936816101263</v>
+      </c>
+      <c r="E32">
         <v>12.78626</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>3.4917450000000001E-4</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="I32" t="s">
+      <c r="G32" s="1"/>
+      <c r="J32" t="s">
         <v>89</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>6.1250830000000001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.77136134999999995</v>
       </c>
-      <c r="L32">
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>1.7068796626760903</v>
+      </c>
+      <c r="N32">
         <v>3.6851189999999998</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>5.4900049999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,10 +2181,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF50D670-431E-4D20-B400-185407D2D6F5}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,18 +2197,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1829,7 +2225,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
@@ -1838,7 +2234,7 @@
       <c r="C3">
         <v>11.165469999999999</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H3" t="s">
@@ -1849,14 +2245,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4">
         <v>6.7945700000000002</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>18</v>
       </c>
@@ -1865,14 +2261,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5">
         <v>6.1883290000000004</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>20</v>
       </c>
@@ -1881,14 +2277,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6">
         <v>6.1396009999999999</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5"/>
       <c r="H6" t="s">
         <v>24</v>
       </c>
@@ -1897,14 +2293,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7">
         <v>6.1396009999999999</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="5"/>
       <c r="H7" t="s">
         <v>17</v>
       </c>
@@ -1913,14 +2309,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
         <v>6.1396009999999999</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="5"/>
       <c r="H8" t="s">
         <v>53</v>
       </c>
@@ -1929,14 +2325,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9">
         <v>5.4744929999999998</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="5"/>
       <c r="H9" t="s">
         <v>23</v>
       </c>
@@ -1945,14 +2341,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10">
         <v>5.1183959999999997</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="5"/>
       <c r="H10" t="s">
         <v>54</v>
       </c>
@@ -1961,14 +2357,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11">
         <v>5.1179399999999999</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="5"/>
       <c r="H11" t="s">
         <v>55</v>
       </c>
@@ -1977,14 +2373,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="C12">
         <v>5.047574</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="5"/>
       <c r="H12" t="s">
         <v>56</v>
       </c>
@@ -1993,14 +2389,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
         <v>4.7992309999999998</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="5"/>
       <c r="H13" t="s">
         <v>82</v>
       </c>
@@ -2009,14 +2405,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
         <v>4.7991919999999997</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="5"/>
       <c r="H14" t="s">
         <v>26</v>
       </c>
@@ -2025,14 +2421,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>76</v>
       </c>
       <c r="C15">
         <v>4.7991919999999997</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="5"/>
       <c r="H15" t="s">
         <v>83</v>
       </c>
@@ -2041,14 +2437,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16">
         <v>4.7739279999999997</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="5"/>
       <c r="H16" t="s">
         <v>81</v>
       </c>
@@ -2057,14 +2453,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>77</v>
       </c>
       <c r="C17">
         <v>4.5561239999999996</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="5"/>
       <c r="H17" t="s">
         <v>80</v>
       </c>
@@ -2073,7 +2469,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B18" t="s">
@@ -2082,7 +2478,7 @@
       <c r="C18">
         <v>-16.849677</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H18" t="s">
@@ -2093,14 +2489,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19">
         <v>-11.6549931</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="5"/>
       <c r="H19" t="s">
         <v>47</v>
       </c>
@@ -2109,14 +2505,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20">
         <v>-11.0583153</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="5"/>
       <c r="H20" t="s">
         <v>22</v>
       </c>
@@ -2125,14 +2521,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21">
         <v>-9.8860755000000005</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="5"/>
       <c r="H21" t="s">
         <v>48</v>
       </c>
@@ -2141,14 +2537,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22">
         <v>-9.8137051</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="5"/>
       <c r="H22" t="s">
         <v>49</v>
       </c>
@@ -2157,14 +2553,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23">
         <v>-9.5589078000000001</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="5"/>
       <c r="H23" t="s">
         <v>25</v>
       </c>
@@ -2173,14 +2569,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="5"/>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24">
         <v>-9.2464455000000001</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="5"/>
       <c r="H24" t="s">
         <v>50</v>
       </c>
@@ -2189,14 +2585,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25">
         <v>-9.0396249999999991</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="5"/>
       <c r="H25" t="s">
         <v>51</v>
       </c>
@@ -2205,14 +2601,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26">
         <v>-8.3536354999999993</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="5"/>
       <c r="H26" t="s">
         <v>52</v>
       </c>
@@ -2221,7 +2617,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -2230,7 +2626,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -2239,7 +2635,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -2248,7 +2644,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="5"/>
       <c r="B30" t="s">
         <v>73</v>
       </c>
@@ -2257,7 +2653,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -2266,7 +2662,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="5"/>
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -2285,4 +2681,1614 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A1879-32D4-4609-B7B2-42E8F8214BC1}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>-6.8873230000000003</v>
+      </c>
+      <c r="C3">
+        <v>13.35361</v>
+      </c>
+      <c r="D3">
+        <v>115.08403</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.5432359999999993E-27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3">
+        <v>24.64988</v>
+      </c>
+      <c r="K3">
+        <v>2.4214612999999998</v>
+      </c>
+      <c r="L3">
+        <v>36.743780000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.347196E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-5.8573269999999997</v>
+      </c>
+      <c r="C4">
+        <v>10.512487999999999</v>
+      </c>
+      <c r="D4">
+        <v>59.657080000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1291239999999999E-14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>28.59873</v>
+      </c>
+      <c r="K4">
+        <v>1.9695940999999999</v>
+      </c>
+      <c r="L4">
+        <v>34.728250000000003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.7909080000000003E-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-16.108367999999999</v>
+      </c>
+      <c r="C5">
+        <v>2.328147</v>
+      </c>
+      <c r="D5">
+        <v>50.159149999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.417689E-12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5">
+        <v>23.312110000000001</v>
+      </c>
+      <c r="K5">
+        <v>2.8115116000000002</v>
+      </c>
+      <c r="L5">
+        <v>30.358250000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3.5917680000000002E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-6.4494930000000004</v>
+      </c>
+      <c r="C6">
+        <v>11.820202</v>
+      </c>
+      <c r="D6">
+        <v>44.356430000000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.73711E-11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6">
+        <v>27.291080000000001</v>
+      </c>
+      <c r="K6">
+        <v>1.9127436</v>
+      </c>
+      <c r="L6">
+        <v>29.333279999999998</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.0940030000000005E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>-5.0943100000000001</v>
+      </c>
+      <c r="C7">
+        <v>11.397539</v>
+      </c>
+      <c r="D7">
+        <v>42.246980000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8.0443989999999998E-11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7">
+        <v>23.441970000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.8162156</v>
+      </c>
+      <c r="L7">
+        <v>28.621359999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8.8006030000000004E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-4.365672</v>
+      </c>
+      <c r="C8">
+        <v>7.6177849999999996</v>
+      </c>
+      <c r="D8">
+        <v>42.1952</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.2602620000000005E-11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8">
+        <v>33.781509999999997</v>
+      </c>
+      <c r="K8">
+        <v>1.0102304</v>
+      </c>
+      <c r="L8">
+        <v>28.026520000000001</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.1966430000000001E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11.079402999999999</v>
+      </c>
+      <c r="C9">
+        <v>6.5066259999999998</v>
+      </c>
+      <c r="D9">
+        <v>35.541060000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.497309E-9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9">
+        <v>31.997979999999998</v>
+      </c>
+      <c r="K9">
+        <v>1.3007127999999999</v>
+      </c>
+      <c r="L9">
+        <v>27.017019999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.0167230000000001E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-9.8024930000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.2669809999999999</v>
+      </c>
+      <c r="D10">
+        <v>24.397549999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.8368270000000004E-7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10">
+        <v>23.893799999999999</v>
+      </c>
+      <c r="K10">
+        <v>2.5961013999999998</v>
+      </c>
+      <c r="L10">
+        <v>26.287220000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.9422899999999998E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>-6.9238270000000002</v>
+      </c>
+      <c r="C11">
+        <v>3.5095480000000001</v>
+      </c>
+      <c r="D11">
+        <v>22.769210000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.8266940000000001E-6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11">
+        <v>32.885019999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.93353819999999998</v>
+      </c>
+      <c r="L11">
+        <v>25.67174</v>
+      </c>
+      <c r="M11" s="1">
+        <v>4.0471020000000001E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>-6.4484919999999999</v>
+      </c>
+      <c r="C12">
+        <v>3.1917680000000002</v>
+      </c>
+      <c r="D12">
+        <v>21.12538</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.30192E-6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>24.486049999999999</v>
+      </c>
+      <c r="K12">
+        <v>1.0321719</v>
+      </c>
+      <c r="L12">
+        <v>25.467669999999998</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4.4985929999999998E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>-6.1239600000000003</v>
+      </c>
+      <c r="C13">
+        <v>3.0760420000000002</v>
+      </c>
+      <c r="D13">
+        <v>20.386299999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6.3281219999999998E-6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13">
+        <v>24.255849999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.93583459999999996</v>
+      </c>
+      <c r="L13">
+        <v>25.035329999999998</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5.628924E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>11.483609</v>
+      </c>
+      <c r="C14">
+        <v>3.6738140000000001</v>
+      </c>
+      <c r="D14">
+        <v>19.291540000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.122023E-5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14">
+        <v>21.455780000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.7178184000000001</v>
+      </c>
+      <c r="L14">
+        <v>24.488209999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7.4766030000000004E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>-7.3842850000000002</v>
+      </c>
+      <c r="C15">
+        <v>2.1509420000000001</v>
+      </c>
+      <c r="D15">
+        <v>18.59789</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.6139909999999998E-5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15">
+        <v>27.484459999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.26030199999999998</v>
+      </c>
+      <c r="L15">
+        <v>22.856619999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.7454700000000001E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>3.2242130000000002</v>
+      </c>
+      <c r="C16">
+        <v>11.197957000000001</v>
+      </c>
+      <c r="D16">
+        <v>18.068079999999998</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.131454E-5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16">
+        <v>20.34301</v>
+      </c>
+      <c r="K16">
+        <v>2.7077569000000001</v>
+      </c>
+      <c r="L16">
+        <v>22.6096</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.9849030000000001E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>-3.4799340000000001</v>
+      </c>
+      <c r="C17">
+        <v>6.0520690000000004</v>
+      </c>
+      <c r="D17">
+        <v>18.010729999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.1966310000000001E-5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17">
+        <v>36.99248</v>
+      </c>
+      <c r="K17">
+        <v>0.32363160000000002</v>
+      </c>
+      <c r="L17">
+        <v>21.78736</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.045996E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>-2.6167760000000002</v>
+      </c>
+      <c r="C18">
+        <v>8.5505110000000002</v>
+      </c>
+      <c r="D18">
+        <v>17.8325</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.4122780000000001E-5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18">
+        <v>24.822620000000001</v>
+      </c>
+      <c r="K18">
+        <v>1.7021587</v>
+      </c>
+      <c r="L18">
+        <v>21.57301</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.4061170000000001E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>-6.5148520000000003</v>
+      </c>
+      <c r="C19">
+        <v>2.0154429999999999</v>
+      </c>
+      <c r="D19">
+        <v>17.20148</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.3617430000000003E-5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19">
+        <v>27.033570000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.45058949999999998</v>
+      </c>
+      <c r="L19">
+        <v>21.48359</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.5686940000000001E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>-3.1853760000000002</v>
+      </c>
+      <c r="C20">
+        <v>6.9217690000000003</v>
+      </c>
+      <c r="D20">
+        <v>17.134440000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.4825069999999998E-5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20">
+        <v>24.38186</v>
+      </c>
+      <c r="K20">
+        <v>2.1968268000000002</v>
+      </c>
+      <c r="L20">
+        <v>21.42895</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3.671842E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>24.308942999999999</v>
+      </c>
+      <c r="C21">
+        <v>2.8971079999999998</v>
+      </c>
+      <c r="D21">
+        <v>16.682950000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.4176179999999998E-5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21">
+        <v>21.33145</v>
+      </c>
+      <c r="K21">
+        <v>1.3476305</v>
+      </c>
+      <c r="L21">
+        <v>21.20073</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.1360779999999999E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>-5.9956519999999998</v>
+      </c>
+      <c r="C22">
+        <v>3.9211510000000001</v>
+      </c>
+      <c r="D22">
+        <v>16.647690000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.5005159999999998E-5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22">
+        <v>20.80453</v>
+      </c>
+      <c r="K22">
+        <v>1.7555714</v>
+      </c>
+      <c r="L22">
+        <v>20.675619999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5.4404340000000001E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>3.0738300000000001</v>
+      </c>
+      <c r="C23">
+        <v>8.042465</v>
+      </c>
+      <c r="D23">
+        <v>16.48667</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.8993229999999999E-5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23">
+        <v>25.901050000000001</v>
+      </c>
+      <c r="K23">
+        <v>2.7211777000000001</v>
+      </c>
+      <c r="L23">
+        <v>20.314219999999999</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6.5710320000000003E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>9.1917849999999994</v>
+      </c>
+      <c r="C24">
+        <v>3.9900190000000002</v>
+      </c>
+      <c r="D24">
+        <v>14.167870000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.6720170000000001E-4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24">
+        <v>24.868359999999999</v>
+      </c>
+      <c r="K24">
+        <v>2.1434598999999999</v>
+      </c>
+      <c r="L24">
+        <v>20.29982</v>
+      </c>
+      <c r="M24" s="1">
+        <v>6.6206910000000004E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>4.6209290000000003</v>
+      </c>
+      <c r="C25">
+        <v>4.7583979999999997</v>
+      </c>
+      <c r="D25">
+        <v>14.0664</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.7646839999999999E-4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25">
+        <v>20.292470000000002</v>
+      </c>
+      <c r="K25">
+        <v>2.2959532</v>
+      </c>
+      <c r="L25">
+        <v>19.928789999999999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.0380679999999993E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>13.041422000000001</v>
+      </c>
+      <c r="C26">
+        <v>2.4130219999999998</v>
+      </c>
+      <c r="D26">
+        <v>13.693210000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.1523169999999999E-4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26">
+        <v>22.211410000000001</v>
+      </c>
+      <c r="K26">
+        <v>1.9260824999999999</v>
+      </c>
+      <c r="L26">
+        <v>19.54608</v>
+      </c>
+      <c r="M26" s="1">
+        <v>9.8201900000000006E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>5.9702400000000004</v>
+      </c>
+      <c r="C27">
+        <v>5.4205120000000004</v>
+      </c>
+      <c r="D27">
+        <v>13.595560000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.2672050000000001E-4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27">
+        <v>14.681649999999999</v>
+      </c>
+      <c r="K27">
+        <v>2.5503562</v>
+      </c>
+      <c r="L27">
+        <v>19.544429999999998</v>
+      </c>
+      <c r="M27" s="1">
+        <v>9.828691E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28">
+        <v>-4.6631650000000002</v>
+      </c>
+      <c r="C28">
+        <v>4.7891409999999999</v>
+      </c>
+      <c r="D28">
+        <v>13.159269999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.8610050000000002E-4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28">
+        <v>18.524429999999999</v>
+      </c>
+      <c r="K28">
+        <v>1.9406702</v>
+      </c>
+      <c r="L28">
+        <v>19.529340000000001</v>
+      </c>
+      <c r="M28" s="1">
+        <v>9.9066379999999999E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>-5.5477270000000001</v>
+      </c>
+      <c r="C29">
+        <v>5.4990750000000004</v>
+      </c>
+      <c r="D29">
+        <v>13.02544</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.0728800000000002E-4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29">
+        <v>25.668669999999999</v>
+      </c>
+      <c r="K29">
+        <v>1.2022014000000001</v>
+      </c>
+      <c r="L29">
+        <v>19.526330000000002</v>
+      </c>
+      <c r="M29" s="1">
+        <v>9.9222559999999995E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>5.9233710000000004</v>
+      </c>
+      <c r="C30">
+        <v>3.2442350000000002</v>
+      </c>
+      <c r="D30">
+        <v>12.904030000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.2787579999999999E-4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30">
+        <v>20.834340000000001</v>
+      </c>
+      <c r="K30">
+        <v>2.0475303999999999</v>
+      </c>
+      <c r="L30">
+        <v>19.25403</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.1442860000000001E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>-7.3836269999999997</v>
+      </c>
+      <c r="C31">
+        <v>2.4019149999999998</v>
+      </c>
+      <c r="D31">
+        <v>12.83741</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.3975709999999997E-4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31">
+        <v>-12.634320000000001</v>
+      </c>
+      <c r="K31">
+        <v>7.5066357000000004</v>
+      </c>
+      <c r="L31">
+        <v>19.215810000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.167428E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>-4.00943</v>
+      </c>
+      <c r="C32">
+        <v>4.5505890000000004</v>
+      </c>
+      <c r="D32">
+        <v>12.786250000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.4917550000000002E-4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32">
+        <v>17.556609999999999</v>
+      </c>
+      <c r="K32">
+        <v>3.0633385</v>
+      </c>
+      <c r="L32">
+        <v>19.083020000000001</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.2515359999999999E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4363BB0-AB53-442C-B9AF-49E559DD48CE}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>16.849675399999999</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>30.15493</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>11.6549931</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4">
+        <v>26.380759999999999</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>11.0583153</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5">
+        <v>25.64124</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>9.8860753999999993</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6">
+        <v>23.415559999999999</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>9.8137048</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <v>22.794160000000002</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>9.5589098999999997</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8">
+        <v>22.179310000000001</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>9.2464455000000001</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9">
+        <v>21.52638</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>9.0396251000000003</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>19.823129999999999</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>8.3536354999999993</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11">
+        <v>19.05077</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>8.0197044000000002</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12">
+        <v>18.916730000000001</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>7.9598310999999997</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13">
+        <v>18.738240000000001</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>7.6796571</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14">
+        <v>18.515799999999999</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>7.2900888000000004</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15">
+        <v>17.953240000000001</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>6.7884555000000004</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16">
+        <v>17.792159999999999</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>6.6579724000000002</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17">
+        <v>17.75347</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>-11.165469999999999</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>-15.792884000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>-6.7945700000000002</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19">
+        <v>-13.596461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>-6.1883290000000004</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>-13.466634000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>-6.1396009999999999</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21">
+        <v>-13.213523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>-6.1396009999999999</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22">
+        <v>-12.698483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>-6.1396009999999999</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>-12.38218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>-5.4744929999999998</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>-11.726383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>-5.1183959999999997</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25">
+        <v>-11.434888000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>-5.1179399999999999</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>-11.389099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>-5.047574</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27">
+        <v>-10.289103000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>-4.7992309999999998</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28">
+        <v>-10.197825999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>-4.7991919999999997</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29">
+        <v>-10.018962999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>-4.7991919999999997</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30">
+        <v>-9.8937430000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>-4.7739279999999997</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31">
+        <v>-9.8207979999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>-4.5561239999999996</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32">
+        <v>-9.2261579999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="G3:G17"/>
+    <mergeCell ref="G18:G32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>